--- a/src/circadian_pipeline/Monitors log 09092024.xlsx
+++ b/src/circadian_pipeline/Monitors log 09092024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toporikovan\Box\students research\Toporikova Lab\Toporikova Lab Summer 2024\Weak Red Light experiment\Mixed species WRD LD experiment 092024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiyayurkovskaya/Spider-Circadian-Activity/src/circadian_pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F98275F-9B5F-49DB-9575-F62072B84DE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C01AD0-AEC3-C946-BD30-2513021D1594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{3029FD82-8DA2-483C-B978-E9AD9E107C23}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14020" xr2:uid="{3029FD82-8DA2-483C-B978-E9AD9E107C23}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitor 1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -123,7 +123,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,17 +441,17 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -491,7 +491,7 @@
         <v>45519</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -511,7 +511,7 @@
         <v>45519</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -531,7 +531,7 @@
         <v>45519</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -551,7 +551,7 @@
         <v>45509</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -571,7 +571,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -591,7 +591,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -611,7 +611,7 @@
         <v>45476</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -631,7 +631,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -651,7 +651,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -671,7 +671,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -691,7 +691,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -711,7 +711,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -731,7 +731,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -751,7 +751,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -771,7 +771,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -791,7 +791,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -811,7 +811,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -831,7 +831,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -851,7 +851,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -871,7 +871,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -891,7 +891,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -911,7 +911,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -931,7 +931,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -951,7 +951,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -971,7 +971,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -991,7 +991,7 @@
         <v>45460</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>45460</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>45460</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>45460</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>45460</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>45460</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1125,12 +1125,12 @@
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>45519</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>45519</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>45519</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>45519</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>45519</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>45519</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>45519</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>45519</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>45519</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>45460</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>45460</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>45460</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>45460</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>45460</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>45460</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
